--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_84.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_84.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5155</v>
+        <v>1.6548</v>
       </c>
       <c r="J3" t="n">
-        <v>25.79</v>
+        <v>1.84</v>
       </c>
       <c r="K3" t="n">
-        <v>701.75</v>
+        <v>54.59</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.98</v>
+        <v>2.21</v>
       </c>
       <c r="R3" t="n">
-        <v>752.0431</v>
+        <v>780.1768</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3973</v>
+        <v>1.4758</v>
       </c>
       <c r="J4" t="n">
-        <v>8.66</v>
+        <v>1.49</v>
       </c>
       <c r="K4" t="n">
-        <v>217.3</v>
+        <v>39.41</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.87</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>725.2952</v>
+        <v>698.1305</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>6.9486</v>
+        <v>7.1388</v>
       </c>
       <c r="J5" t="n">
-        <v>27.19</v>
+        <v>26.39</v>
       </c>
       <c r="K5" t="n">
-        <v>3392.04</v>
+        <v>3382.13</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>11.8</v>
+        <v>8.23</v>
       </c>
       <c r="R5" t="n">
-        <v>2980.7037</v>
+        <v>2899.4943</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>8.182499999999999</v>
+        <v>8.610099999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>26.32</v>
+        <v>25.95</v>
       </c>
       <c r="K6" t="n">
-        <v>3866.85</v>
+        <v>4011.52</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.369999999999999</v>
+        <v>6.99</v>
       </c>
       <c r="R6" t="n">
-        <v>2368.2406</v>
+        <v>2462.5651</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7973</v>
+        <v>3.8815</v>
       </c>
       <c r="J7" t="n">
-        <v>30.91</v>
+        <v>31.63</v>
       </c>
       <c r="K7" t="n">
-        <v>2107.49</v>
+        <v>2204.04</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>6.78</v>
+        <v>5.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1712.7974</v>
+        <v>1766.5604</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>42.6011</v>
+        <v>44.9355</v>
       </c>
       <c r="J8" t="n">
-        <v>4.02</v>
+        <v>3.92</v>
       </c>
       <c r="K8" t="n">
-        <v>3077.95</v>
+        <v>3160.29</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>12.21</v>
+        <v>8.81</v>
       </c>
       <c r="R8" t="n">
-        <v>3085.8932</v>
+        <v>3104.0624</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>9.0862</v>
+        <v>10.677</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="K9" t="n">
-        <v>317.28</v>
+        <v>341.56</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="R9" t="n">
-        <v>252.0237</v>
+        <v>272.5559</v>
       </c>
     </row>
   </sheetData>
